--- a/Utils/Modelo de Tabela.xlsx
+++ b/Utils/Modelo de Tabela.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MasterDegreeHCV\Utils\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Step 01" sheetId="1" r:id="rId1"/>
     <sheet name="Baby Step 02" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>Tabela dos Pacientes</t>
   </si>
@@ -102,18 +108,106 @@
   </si>
   <si>
     <t>P Mutacao Global</t>
+  </si>
+  <si>
+    <t>label 1</t>
+  </si>
+  <si>
+    <t>label 2</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Coisa 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Coisa 2</t>
+  </si>
+  <si>
+    <t>adj 1</t>
+  </si>
+  <si>
+    <t>adj 2</t>
+  </si>
+  <si>
+    <t>adj 3</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>Coisa 3</t>
+  </si>
+  <si>
+    <t>extrapolar</t>
+  </si>
+  <si>
+    <t>Probabilidade de ser preso 0-1</t>
+  </si>
+  <si>
+    <t>pessoa 1</t>
+  </si>
+  <si>
+    <t>pessoa 2</t>
+  </si>
+  <si>
+    <t>pessoa 3</t>
+  </si>
+  <si>
+    <t>Renda</t>
+  </si>
+  <si>
+    <t>Escolaridade</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>baixa</t>
+  </si>
+  <si>
+    <t>médio</t>
+  </si>
+  <si>
+    <t>sudeste</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>superior</t>
+  </si>
+  <si>
+    <t>sul</t>
+  </si>
+  <si>
+    <t>fundamental</t>
+  </si>
+  <si>
+    <t>norte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,17 +261,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,41 +550,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -497,54 +594,56 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="H1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -559,46 +658,46 @@
       <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
       <c r="Y2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="5">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="5">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="1"/>
@@ -640,31 +739,31 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>29</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="5">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="1"/>
@@ -704,36 +803,36 @@
       <c r="X4" s="1">
         <v>2.5</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="5">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="1">
@@ -760,75 +859,75 @@
       <c r="X5" s="1">
         <v>2.5</v>
       </c>
-      <c r="Y5" s="5"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>31</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>58</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>92</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>93</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="W10" s="4"/>
@@ -843,23 +942,24 @@
     <mergeCell ref="Q2:X2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -928,4 +1028,171 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="E1" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>4.5</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="I8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="H9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="I10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="I12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="H13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="H14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="H15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Utils/Modelo de Tabela.xlsx
+++ b/Utils/Modelo de Tabela.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MasterDegreeHCV\Utils\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Step 01" sheetId="1" r:id="rId1"/>
     <sheet name="Baby Step 02" sheetId="2" r:id="rId2"/>
     <sheet name="Plan1" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>Tabela dos Pacientes</t>
   </si>
@@ -107,9 +103,6 @@
     <t>Paciente</t>
   </si>
   <si>
-    <t>P Mutacao Global</t>
-  </si>
-  <si>
     <t>label 1</t>
   </si>
   <si>
@@ -189,12 +182,60 @@
   </si>
   <si>
     <t>norte</t>
+  </si>
+  <si>
+    <t>Codon</t>
+  </si>
+  <si>
+    <t>Codon Resistente 1</t>
+  </si>
+  <si>
+    <t>Barreira Genética CR1</t>
+  </si>
+  <si>
+    <t>Frequencia - CR1</t>
+  </si>
+  <si>
+    <t>CodonUsage CR1</t>
+  </si>
+  <si>
+    <t>Genótipo</t>
+  </si>
+  <si>
+    <t>Codon Resistente 2</t>
+  </si>
+  <si>
+    <t>Codon Resistente 3</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>DCV</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>AGA</t>
+  </si>
+  <si>
+    <t>EBV</t>
+  </si>
+  <si>
+    <t>Codon Resistente 4</t>
+  </si>
+  <si>
+    <t>GGG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -245,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,14 +308,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,73 +597,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.81640625" style="1"/>
+    <col min="17" max="17" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="L1" s="8" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="5" t="s">
@@ -658,16 +705,16 @@
       <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
       <c r="Y2" s="1" t="s">
         <v>14</v>
       </c>
@@ -803,7 +850,7 @@
       <c r="X4" s="1">
         <v>2.5</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="9">
         <v>0.8</v>
       </c>
     </row>
@@ -859,7 +906,7 @@
       <c r="X5" s="1">
         <v>2.5</v>
       </c>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="5">
@@ -947,63 +994,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" customWidth="1"/>
+    <col min="7" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1011,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1022,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.2</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1031,23 +1067,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="E1" s="9" t="s">
-        <v>31</v>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
+      <c r="A2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1060,8 +1096,8 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="9" t="s">
-        <v>30</v>
+      <c r="A3" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B3">
         <v>4.5</v>
@@ -1074,122 +1110,254 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="I9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="9" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="I10" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="H9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="I10" s="9" t="s">
+      <c r="M10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="9" t="s">
+    </row>
+    <row r="12" spans="1:13">
+      <c r="I12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="I12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="9" t="s">
+    <row r="13" spans="1:13">
+      <c r="H13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="H13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="L13">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="L14">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="H15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="L15">
         <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
